--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560332/JX560332_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560332/JX560332_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89300164653</v>
+        <v>45441.83326166654</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1228_1228del']</t>
+          <t>['1264_1357inscctttgagtgtggtaatcggacatgtaccggtaccgactcccaacttaacatcaattaagcacgggggcgtcccggcttcctatggatgcaat', '1123_1177del', '1233_1376del', '1099_1130del', '1248_1300del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89300166973</v>
+        <v>45441.83326169547</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['167t&gt;a']</t>
+          <t>['179_320insctcacggattagactgcggatatccggaagctcatatgtagagagcccatacaataagagaatcagtgaggtcttacggttggttgtatgcgcttctgcgggcatgggtagcggtagatcagcccgacaatccggactgcg', '204_250del', '164_305instggatgcagcgctagacatctggcactggcatgaggccgaaagtattcttagggcctattggctacacgccccgcttgagtactatctatccaggagaagtgatcagtgaacagatcaaaacattgctaagatgcagacag', '177_306insctaaagataatctgttactttgtcgcactaattcgcacagtggtgtataaggaccaattacctctgtgtatctcctagagaaataggtgtaaatgaacctcgtagacgccgatatgccaggctctgtct', '208_220del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89300169291</v>
+        <v>45441.83326171862</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3633g&gt;c']</t>
+          <t>['3587_3596del', '3604_3737insagtcggctatcggtagttatctgcgccagcaaatcaaggcggaaatacaggtcacctgagtgtttgctgcccgtccacattaatcggctacagctggtaaaattcagacgcatcgactcttcttgttcttgaa', '3633_3657insggcagagagctccgaactgctttc', '3667_3719del', '3617_3723del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89300171025</v>
+        <v>45441.83326174177</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1313_1315del']</t>
+          <t>['1286_1317del', '1102_1245instgttcccgctgtccgtgctaccttttgaagatggagtatcgtggtgagtaactttcttggcctatgaccggcgttcattgctgtacgttgggagatttcccccgggtggcctcggaaacctgtattaggaatgagtagtcacg', '1186_1273inscaagagaagttgacccttactgcttcatcctaatagcgagggtagcatattgacgatagtccgcaggacttccgtagtcaatagaac', '1178_1195insactggatgagccagtca', '1286_1392del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['152_155insaga']</t>
+          <t>['177_316del', '204_314del', '196_246del', '243_298del', '173_209del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89300173349</v>
+        <v>45441.83326175914</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1243_1244inst']</t>
+          <t>['1274_1386del', '1235_1356del', '1093_1149del', '1295_1380del', '1104_1229insccagagttcttgggcttggatcaacggtgggcgttgttagctccacgccttgatctaatcgactccgcatcgcgactgaaacttgtgtcctgaatacttatgtccggagattcacctgatgctct']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3632_3633del']</t>
+          <t>['3665_3793del', '3637_3760instactttcaggctgcctcgttccatgtggcggggagtaatggccaagacttccgggctctcccgcttgaagacaccgttcaactccccctaacctttattgatgaagtcaactgtcgggttgtt', '3636_3695del', '3569_3630del', '3629_3765instaggctattcaagtggcaagcagaactcatgtgatgcccagattgatgattatgcccttggttacgacagttgccggcgcgcctcgacgcatgatataaacaaactggacgtgacccgcggacccaggccttacgc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89300175665</v>
+        <v>45441.83326178228</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['185_188insttc']</t>
+          <t>['215_310insgcgtgactctaatcgatagattcccgtgattgccttctatatatgcacaattctgaccggtgagcttatttccgtgcactgcgtcttgccgcccc', '195_323insgatcggttaagtaactacaatattagtgatttgtgtttctcgctaagcaacctctcagttcgtctgtggtgtatcacacgttggtactgtgacgccccattttcgacaaaacctcgaattaggggtcg', '166_288del', '157_264insgaggtggagtgcactatcccgacgtccctcgggttttatcttgaagacctacccgaagcgggattcgactctgatgcccttatccgtggatttgtaggctgacggga', '246_330del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3564_3565del']</t>
+          <t>['3612_3721del', '3651_3768del', '3635_3647instaggacggaatt', '3590_3666insctagtagagtccaccgctttttctgaaccggacgcgtgacattgggcgcgttcagctcgacggtgactactgatca', '3646_3795insacagatgcctgaagccctcactcaggactaacgattcactgtagacataccctggcgttcgtagatggccgatgagtaagtggcggccaggtctttatggtgaatccaaatcgactgaggatgctaggattacgatgttggatggctgt']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89300177401</v>
+        <v>45441.83326180543</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1307_1311del']</t>
+          <t>['1222_1304del', '1166_1234insctgcgaaagtcggtttaagaggcgtgaccactacgggaggaagaattggtcgaataaccactcagacc', '1142_1216insacataggaggccgctaaataattaatgttctccatgcgcgaacgaaacatacgtccctttgtctccaaattgtt', '1215_1322del', '1319_1423instgaaagagtcacatcgtccttatccgtacctgatctttctcccacaggaatagtaagaactccatacaagacatagcggatgggaacctagggcggaagtcctc']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['193_195del']</t>
+          <t>['207_251inscaaaggtcagacggactccacgcaatgtccaaccagtgcggatt', '234_345inscgagtagctgtcttagaattagcagaatcgatgtgaccggccacttgtccctgtgcaaacctgatccgagaaaggtttgtaattccagcccatcccactggaatcgaggct', '215_298del', '187_303insccgttataataagtccgccacatcagttttatagtcagtaaacgccccaaccaacgtccccggcgacgcactctagcggcaacctaataacagtactttttgaagcgtaagtaata', '190_260del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3618_3619insc']</t>
+          <t>['3564_3612insgaggccgcccttctaaacgctcgttcaattattaggaagcttagtctg', '3664_3773del', '3588_3693del', '3641_3778del', '3629_3659instaacgagaaatcagttcgcctccttgccat']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89300179717</v>
+        <v>45441.83326182279</v>
       </c>
     </row>
   </sheetData>
